--- a/reference/w(x).xlsx
+++ b/reference/w(x).xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaojingbo/Desktop/__HGX__/reference/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,13 +32,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -204,94 +217,94 @@
                   <c:v>1.0244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0187999999999999</c:v>
+                  <c:v>1.0188</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97989999999999999</c:v>
+                  <c:v>0.9799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96319999999999995</c:v>
+                  <c:v>0.9632</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94640000000000002</c:v>
+                  <c:v>0.9464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92949999999999999</c:v>
+                  <c:v>0.9295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91259999999999997</c:v>
+                  <c:v>0.9126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88980000000000004</c:v>
+                  <c:v>0.8898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87250000000000005</c:v>
+                  <c:v>0.8725</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86099999999999999</c:v>
+                  <c:v>0.861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84350000000000003</c:v>
+                  <c:v>0.8435</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64759999999999995</c:v>
+                  <c:v>0.6476</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.63360000000000005</c:v>
+                  <c:v>0.6336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.61209999999999998</c:v>
+                  <c:v>0.6121</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.59740000000000004</c:v>
+                  <c:v>0.5974</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.57489999999999997</c:v>
+                  <c:v>0.5749</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.55940000000000001</c:v>
+                  <c:v>0.5594</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53549999999999998</c:v>
+                  <c:v>0.5355</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.52739999999999998</c:v>
+                  <c:v>0.5274</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.51070000000000004</c:v>
+                  <c:v>0.5107</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.4849</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.46689999999999998</c:v>
+                  <c:v>0.4669</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.4577</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.42899999999999999</c:v>
+                  <c:v>0.429</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.41909999999999997</c:v>
+                  <c:v>0.4191</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.39850000000000002</c:v>
+                  <c:v>0.3985</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.38790000000000002</c:v>
+                  <c:v>0.3879</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.36570000000000003</c:v>
+                  <c:v>0.3657</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.35410000000000003</c:v>
+                  <c:v>0.3541</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.32979999999999998</c:v>
+                  <c:v>0.3298</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.317</c:v>
@@ -303,10 +316,10 @@
                   <c:v>0.2752</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.25990000000000002</c:v>
+                  <c:v>0.2599</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.24360000000000001</c:v>
+                  <c:v>0.2436</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.2074</c:v>
@@ -318,52 +331,52 @@
                   <c:v>0.1867</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.16350000000000001</c:v>
+                  <c:v>0.1635</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.13639999999999999</c:v>
+                  <c:v>0.1364</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.10249999999999999</c:v>
+                  <c:v>0.1025</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.10249999999999999</c:v>
+                  <c:v>0.1025</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9200000000000001E-2</c:v>
+                  <c:v>0.0492</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9200000000000001E-2</c:v>
+                  <c:v>0.0492</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9200000000000001E-2</c:v>
+                  <c:v>0.0492</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-4.9200000000000001E-2</c:v>
+                  <c:v>-0.0492</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-4.9200000000000001E-2</c:v>
+                  <c:v>-0.0492</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.10249999999999999</c:v>
+                  <c:v>-0.1025</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.10249999999999999</c:v>
+                  <c:v>-0.1025</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.10249999999999999</c:v>
+                  <c:v>-0.1025</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.13639999999999999</c:v>
+                  <c:v>-0.1364</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.16350000000000001</c:v>
+                  <c:v>-0.1635</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>-0.1867</c:v>
@@ -372,142 +385,142 @@
                   <c:v>-0.2074</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.22620000000000001</c:v>
+                  <c:v>-0.2262</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.24360000000000001</c:v>
+                  <c:v>-0.2436</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.25990000000000002</c:v>
+                  <c:v>-0.2599</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>-0.2752</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.30370000000000003</c:v>
+                  <c:v>-0.3037</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-0.317</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.32979999999999998</c:v>
+                  <c:v>-0.3298</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-0.3422</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.37690000000000001</c:v>
+                  <c:v>-0.3769</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.38790000000000002</c:v>
+                  <c:v>-0.3879</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.40889999999999999</c:v>
+                  <c:v>-0.4089</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.41909999999999997</c:v>
+                  <c:v>-0.4191</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.44829999999999998</c:v>
+                  <c:v>-0.4483</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-0.4577</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.47599999999999998</c:v>
+                  <c:v>-0.476</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.49359999999999998</c:v>
+                  <c:v>-0.4936</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.51070000000000004</c:v>
+                  <c:v>-0.5107</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.52739999999999998</c:v>
+                  <c:v>-0.5274</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.55149999999999999</c:v>
+                  <c:v>-0.5515</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.56720000000000004</c:v>
+                  <c:v>-0.5672</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.58250000000000002</c:v>
+                  <c:v>-0.5825</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.59740000000000004</c:v>
+                  <c:v>-0.5974</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.61209999999999998</c:v>
+                  <c:v>-0.6121</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.63360000000000005</c:v>
+                  <c:v>-0.6336</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.64759999999999995</c:v>
+                  <c:v>-0.6476</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.67500000000000004</c:v>
+                  <c:v>-0.675</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.67500000000000004</c:v>
+                  <c:v>-0.675</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.83169999999999999</c:v>
+                  <c:v>-0.8317</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.84350000000000003</c:v>
+                  <c:v>-0.8435</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.86680000000000001</c:v>
+                  <c:v>-0.8668</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-0.87829999999999997</c:v>
+                  <c:v>-0.8783</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.89549999999999996</c:v>
+                  <c:v>-0.8955</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.91820000000000002</c:v>
+                  <c:v>-0.9182</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.92949999999999999</c:v>
+                  <c:v>-0.9295</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.95199999999999996</c:v>
+                  <c:v>-0.952</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.96879999999999999</c:v>
+                  <c:v>-0.9688</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.98550000000000004</c:v>
+                  <c:v>-0.9855</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>-1.0077</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-1.0187999999999999</c:v>
+                  <c:v>-1.0188</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-1.0409999999999999</c:v>
+                  <c:v>-1.041</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-1.0577000000000001</c:v>
+                  <c:v>-1.0577</c:v>
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>-1.0744</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-1.0911999999999999</c:v>
+                  <c:v>-1.0912</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-1.1081000000000001</c:v>
+                  <c:v>-1.1081</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>-1.1251</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-1.1422000000000001</c:v>
+                  <c:v>-1.1422</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>-1.1595</c:v>
@@ -516,10 +529,10 @@
                   <c:v>-1.1771</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-1.2009000000000001</c:v>
+                  <c:v>-1.2009</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-1.2130000000000001</c:v>
+                  <c:v>-1.213</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>-1.2315</c:v>
@@ -528,31 +541,31 @@
                   <c:v>-1.2441</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-1.2635000000000001</c:v>
+                  <c:v>-1.2635</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-1.2766999999999999</c:v>
+                  <c:v>-1.2767</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>-1.3043</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-1.3115000000000001</c:v>
+                  <c:v>-1.3115</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.3338000000000001</c:v>
+                  <c:v>-1.3338</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-1.3494999999999999</c:v>
+                  <c:v>-1.3495</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-1.3661000000000001</c:v>
+                  <c:v>-1.3661</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>-1.3929</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-1.4026000000000001</c:v>
+                  <c:v>-1.4026</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>-1.4236</c:v>
@@ -561,43 +574,43 @@
                   <c:v>-1.4351</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-1.4611000000000001</c:v>
+                  <c:v>-1.4611</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-1.4764999999999999</c:v>
+                  <c:v>-1.4765</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-1.4947999999999999</c:v>
+                  <c:v>-1.4948</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-1.4947999999999999</c:v>
+                  <c:v>-1.4948</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-1.5187999999999999</c:v>
+                  <c:v>-1.5188</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-1.5707963267949001</c:v>
+                  <c:v>-1.5707963267949</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-1.5187999999999999</c:v>
+                  <c:v>-1.5188</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-1.5707963267949001</c:v>
+                  <c:v>-1.5707963267949</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-1.6227926535897901</c:v>
+                  <c:v>-1.62279265358979</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-1.6227926535897901</c:v>
+                  <c:v>-1.62279265358979</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-1.6467926535897901</c:v>
+                  <c:v>-1.64679265358979</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-1.6650926535897901</c:v>
+                  <c:v>-1.66509265358979</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-1.6804926535897899</c:v>
+                  <c:v>-1.68049265358979</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>-1.69409265358979</c:v>
@@ -609,31 +622,31 @@
                   <c:v>-1.72879265358979</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-1.7389926535897899</c:v>
+                  <c:v>-1.73899265358979</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-1.7579926535897901</c:v>
+                  <c:v>-1.75799265358979</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-1.7754926535897899</c:v>
+                  <c:v>-1.77549265358979</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-1.7920926535897901</c:v>
+                  <c:v>-1.79209265358979</c:v>
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>-1.81539265358979</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-1.8300926535897899</c:v>
+                  <c:v>-1.83009265358979</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-1.8442926535897901</c:v>
+                  <c:v>-1.84429265358979</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-1.8648926535897901</c:v>
+                  <c:v>-1.86489265358979</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-1.8845926535897899</c:v>
+                  <c:v>-1.88459265358979</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>-1.90379265358979</c:v>
@@ -642,49 +655,49 @@
                   <c:v>-1.91629265358979</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-1.9346926535897899</c:v>
+                  <c:v>-1.93469265358979</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-1.9526926535897899</c:v>
+                  <c:v>-1.95269265358979</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>-1.97039265358979</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-1.9878926535897901</c:v>
+                  <c:v>-1.98789265358979</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-2.0050926535897902</c:v>
+                  <c:v>-2.00509265358979</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.0221926535897898</c:v>
+                  <c:v>-2.02219265358979</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.0391926535897902</c:v>
+                  <c:v>-2.03919265358979</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.0559926535897901</c:v>
+                  <c:v>-2.05599265358979</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-2.0782926535897901</c:v>
+                  <c:v>-2.07829265358979</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-1.9878926535897901</c:v>
+                  <c:v>-1.98789265358979</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-2.0050926535897902</c:v>
+                  <c:v>-2.00509265358979</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-2.0221926535897898</c:v>
+                  <c:v>-2.02219265358979</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-2.0391926535897902</c:v>
+                  <c:v>-2.03919265358979</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-2.0559926535897901</c:v>
+                  <c:v>-2.05599265358979</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-2.0782926535897901</c:v>
+                  <c:v>-2.07829265358979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,11 +712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1960657776"/>
-        <c:axId val="1960656144"/>
+        <c:axId val="-568591024"/>
+        <c:axId val="-569904176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1960657776"/>
+        <c:axId val="-568591024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,12 +772,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1960656144"/>
+        <c:crossAx val="-569904176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1960656144"/>
+        <c:axId val="-569904176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,7 +834,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1960657776"/>
+        <c:crossAx val="-568591024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1504,12 +1517,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1539,12 +1552,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1750,13 +1763,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:180" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1.0466</v>
       </c>
